--- a/biology/Zoologie/Coliade_intérieur/Coliade_intérieur.xlsx
+++ b/biology/Zoologie/Coliade_intérieur/Coliade_intérieur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coliade_int%C3%A9rieur</t>
+          <t>Coliade_intérieur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colias interior
 Le Coliade intérieur (Colias interior) est un  insecte lépidoptère de la famille des Pieridae de la sous-famille des Coliadinae et du genre Colias.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coliade_int%C3%A9rieur</t>
+          <t>Coliade_intérieur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Colias interior a été nommé par Scudder en 1862.
-Synonyme : Eurymus interior Dyar, 1903[1].
-Noms vernaculaires
-Le Coliade intérieur se nomme Pink-edged Sulphur en anglais.
+Synonyme : Eurymus interior Dyar, 1903.
 </t>
         </is>
       </c>
@@ -528,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Coliade_int%C3%A9rieur</t>
+          <t>Coliade_intérieur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,14 +555,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sous-espèces</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Colias interior interior
-Colias interior laurentina (Scudder, 1875)
-Colias interior vividior (Berger, 1945) dans le Wisconsin[1].</t>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Coliade intérieur se nomme Pink-edged Sulphur en anglais.
+</t>
         </is>
       </c>
     </row>
@@ -560,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Coliade_int%C3%A9rieur</t>
+          <t>Coliade_intérieur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,16 +592,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Coliade intérieur est un papillon de taille moyenne (son envergure varie de 35 à 66 mm). Les ailes du mâle sont d'une couleur jaune, à bordure noire large aux antérieures, plus étroite aux postérieures, frange rose avec la cellule à l'aile antérieure marquée d'un point noir peu visible et un point discocellulaire cerclé de rose peu visible au centre de l'aile postérieure.
-Les femelles sont jaune plus clair ou rarement blanches, avec une bordure foncée réduite ou absente[2].
-Chenille
-La chenille est de couleur vert jaunâtre ornée de bandes dorsales plus claire et d'une bande latérale blanche sillonnée d'une ligne rouge avec un liseré partiel bleu[2].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Colias interior interior
+Colias interior laurentina (Scudder, 1875)
+Colias interior vividior (Berger, 1945) dans le Wisconsin.</t>
         </is>
       </c>
     </row>
@@ -594,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Coliade_int%C3%A9rieur</t>
+          <t>Coliade_intérieur</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,15 +626,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Coliade intérieur vole, suivant son lieu de résidence, entre la fin mai et le début septembre, en une seule génération[2].
-Il hiberne à un stade de chenille[2].
-Plantes hôtes
-Les plantes hôte de sa chenille sont des Vaccinium : Vaccinium myrtilloides, Vaccinium corymbosum Vaccinium caespitosum Vaccinium vacillans, Vaccinium angustifolium et Vaccinium canadensis[1],[3].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Coliade intérieur est un papillon de taille moyenne (son envergure varie de 35 à 66 mm). Les ailes du mâle sont d'une couleur jaune, à bordure noire large aux antérieures, plus étroite aux postérieures, frange rose avec la cellule à l'aile antérieure marquée d'un point noir peu visible et un point discocellulaire cerclé de rose peu visible au centre de l'aile postérieure.
+Les femelles sont jaune plus clair ou rarement blanches, avec une bordure foncée réduite ou absente.
 </t>
         </is>
       </c>
@@ -628,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Coliade_int%C3%A9rieur</t>
+          <t>Coliade_intérieur</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,16 +660,196 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est de couleur vert jaunâtre ornée de bandes dorsales plus claire et d'une bande latérale blanche sillonnée d'une ligne rouge avec un liseré partiel bleu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Coliade_intérieur</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coliade_int%C3%A9rieur</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Coliade intérieur vole, suivant son lieu de résidence, entre la fin mai et le début septembre, en une seule génération.
+Il hiberne à un stade de chenille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Coliade_intérieur</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coliade_int%C3%A9rieur</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôte de sa chenille sont des Vaccinium : Vaccinium myrtilloides, Vaccinium corymbosum Vaccinium caespitosum Vaccinium vacillans, Vaccinium angustifolium et Vaccinium canadensis,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Coliade_intérieur</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coliade_int%C3%A9rieur</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Coliade intérieur est présent dans le nord de l'Amérique du Nord, dans tout le Canada dans le nord-est, le nord et le nord-ouest des États-Unis dans l'État de Washington, l'Idaho, le Maine, le Michigan, le Minnesota, la Virginie, le Montana, l'Oregon et le Wisconsin.
-Biotope
-Il réside dans les clairières où pousse sa plante hôte[2].
-Protection
-Pas de statut de protection général mais dans le sud des Appalaches son habitat est protégé[3].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Coliade_intérieur</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coliade_int%C3%A9rieur</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les clairières où pousse sa plante hôte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Coliade_intérieur</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coliade_int%C3%A9rieur</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection général mais dans le sud des Appalaches son habitat est protégé.
 </t>
         </is>
       </c>
